--- a/Excel/Exercice 3.xlsx
+++ b/Excel/Exercice 3.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb92272b50bc787c/Documents/Formation365/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msell\OneDrive\Documents\Formation365\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{04821479-9A92-4A24-938D-6581DCC5ADE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598BE0F1-08BF-4F06-968C-FFE908338889}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6BF73-A0DA-4FCD-8DE4-4932CD1CF95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{985234DA-4007-48EC-88AF-5BA3708F5F0C}"/>
   </bookViews>
@@ -18,9 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,7 +184,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2315,10 +2325,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ilyass Msellek" refreshedDate="46039.64946296296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{6607ADC9-B058-495B-9155-777CBB1971E7}">
   <cacheSource type="worksheet">
@@ -2414,7 +2420,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71E1E9C1-6235-48AB-BC15-45AC2AA33FDC}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71E1E9C1-6235-48AB-BC15-45AC2AA33FDC}" name="Tableau croisé dynamique1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2611,15 +2617,15 @@
     <sortCondition descending="1" ref="F1:F6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C0C99B60-8E86-4F2C-8A29-C97DBA8DAAA5}" name="Nom" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C0C99B60-8E86-4F2C-8A29-C97DBA8DAAA5}" name="Nom" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{86E2CB96-C2C9-45B7-B62F-4480281B3901}" name="Prénom"/>
     <tableColumn id="3" xr3:uid="{5AF5ACC8-1DF3-48AD-9995-AB3C908318F5}" name="Service"/>
     <tableColumn id="4" xr3:uid="{A695A144-DA3F-4778-8B5C-9F9BF1A9CE03}" name="Salaire"/>
-    <tableColumn id="5" xr3:uid="{8B785A4E-D872-459F-81E2-F2A53B97DF5F}" name="Date embauche" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{D362E319-0744-4579-987B-5C5C71D96BCB}" name="Ancienneté" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{8B785A4E-D872-459F-81E2-F2A53B97DF5F}" name="Date embauche" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D362E319-0744-4579-987B-5C5C71D96BCB}" name="Ancienneté" dataDxfId="3">
       <calculatedColumnFormula>DATEDIF(E2, TODAY(),"Y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{05E052A8-131E-458B-8B6D-CCFDBFF531E5}" name="Revue salariale" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{05E052A8-131E-458B-8B6D-CCFDBFF531E5}" name="Revue salariale" dataDxfId="2">
       <calculatedColumnFormula>IF(AND(F2&gt;=3,D2&lt;=3500), "Oui", "Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2944,10 +2950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF31122-B9F2-4CF1-8F16-0AF3858FE8A1}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3135,8 +3142,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G7">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G7">
+    <cfRule type="containsText" priority="2" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",A2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2="Oui"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3156,6 +3171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCE8ECE-E666-4E43-9BD8-6CCE129DB730}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
